--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_3_14.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_3_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-81778.23566941978</v>
+        <v>-83665.81718582171</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>330.4248760205903</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -713,19 +713,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>71.70044599118907</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>48.60603564323155</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>222.6652797377423</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,22 +896,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>340.3387469606003</v>
+        <v>40.09050805626424</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -990,10 +990,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1057,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>156.1271626621474</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>7.144861365174905</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>366.4752704092858</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>65.94182778688895</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1148,7 +1148,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1294,13 +1294,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>28.27910107855481</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>25.31590541686268</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1534,7 +1534,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1546,7 +1546,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,19 +1576,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>123.9678322351783</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>54.27683016996329</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1768,19 +1768,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>127.6176159584067</v>
+        <v>151.1330802259963</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,16 +1999,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2017,10 +2017,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>14.72393387226043</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,22 +2050,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>238.4568011062404</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2175,10 +2175,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H21" t="n">
-        <v>94.98542483262919</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.9013320701444</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T21" t="n">
         <v>192.9654699154601</v>
@@ -2239,13 +2239,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>113.7743197194989</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,16 +2287,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>36.59669811656487</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2372,7 +2372,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2384,7 +2384,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="24">
@@ -2476,13 +2476,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>30.40674359638132</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -2536,13 +2536,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>166.1848299532892</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>44.6888605502441</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.3675597136126</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675362</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,13 +2761,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>4.078991725597653</v>
+        <v>93.71057173897907</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571492</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523574</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550462</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298322</v>
+        <v>55.593987987481</v>
       </c>
       <c r="U31" t="n">
         <v>231.0340957700203</v>
@@ -3016,7 +3016,7 @@
         <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>163.3813967235377</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I34" t="n">
         <v>42.28735533463134</v>
@@ -3238,22 +3238,22 @@
         <v>129.7889198539626</v>
       </c>
       <c r="T34" t="n">
-        <v>153.4156709287486</v>
+        <v>153.415670928748</v>
       </c>
       <c r="U34" t="n">
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498026</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D37" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I37" t="n">
         <v>42.28735533463134</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634821</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898722</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857175</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692856</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329064</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373698</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789552</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463139</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415219</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898722</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789552</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692848</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1525.597764264522</v>
+        <v>1568.353113282533</v>
       </c>
       <c r="C2" t="n">
-        <v>1191.835263233623</v>
+        <v>1568.353113282533</v>
       </c>
       <c r="D2" t="n">
-        <v>1191.835263233623</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E2" t="n">
-        <v>806.0470106353782</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F2" t="n">
-        <v>395.0611058457707</v>
+        <v>799.1015098861747</v>
       </c>
       <c r="G2" t="n">
         <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2302.336936304455</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2302.336936304455</v>
+        <v>1921.121768552647</v>
       </c>
       <c r="W2" t="n">
-        <v>2302.336936304455</v>
+        <v>1568.353113282533</v>
       </c>
       <c r="X2" t="n">
-        <v>2302.336936304455</v>
+        <v>1568.353113282533</v>
       </c>
       <c r="Y2" t="n">
-        <v>1912.197604328644</v>
+        <v>1568.353113282533</v>
       </c>
     </row>
     <row r="3">
@@ -4398,40 +4398,40 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641985</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>249.9299350185087</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="C4" t="n">
-        <v>249.9299350185087</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="D4" t="n">
-        <v>249.9299350185087</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="E4" t="n">
-        <v>249.9299350185087</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="F4" t="n">
-        <v>103.0399875205983</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="G4" t="n">
-        <v>103.0399875205983</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="H4" t="n">
-        <v>103.0399875205983</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4516,22 +4516,22 @@
         <v>698.7120650600561</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600561</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600561</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="W4" t="n">
-        <v>698.7120650600561</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="X4" t="n">
-        <v>470.7225141620388</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="Y4" t="n">
-        <v>249.9299350185087</v>
+        <v>246.4894537511404</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1097.103316533936</v>
+        <v>863.1126181035247</v>
       </c>
       <c r="C5" t="n">
-        <v>1097.103316533936</v>
+        <v>494.150101163113</v>
       </c>
       <c r="D5" t="n">
-        <v>738.8376179271852</v>
+        <v>494.150101163113</v>
       </c>
       <c r="E5" t="n">
-        <v>738.8376179271852</v>
+        <v>108.3618485648688</v>
       </c>
       <c r="F5" t="n">
-        <v>395.0611058457707</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036446</v>
@@ -4565,10 +4565,10 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4580,7 +4580,7 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P5" t="n">
         <v>2544.691559791253</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834949</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834949</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V5" t="n">
-        <v>2247.308246834949</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W5" t="n">
-        <v>2247.308246834949</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X5" t="n">
-        <v>1873.842488573869</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y5" t="n">
-        <v>1483.703156598057</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="6">
@@ -4635,7 +4635,7 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4647,19 +4647,19 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4699,13 +4699,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>351.9727148150933</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C7" t="n">
-        <v>351.9727148150933</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E7" t="n">
         <v>53.94298182036446</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N7" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406182</v>
+        <v>570.4247794971948</v>
       </c>
       <c r="T7" t="n">
-        <v>579.9823256406182</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U7" t="n">
-        <v>579.9823256406182</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="V7" t="n">
-        <v>572.7652939586234</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="W7" t="n">
-        <v>572.7652939586234</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X7" t="n">
-        <v>572.7652939586234</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y7" t="n">
-        <v>351.9727148150933</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1995.909162857192</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="C8" t="n">
-        <v>1626.94664591678</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="D8" t="n">
-        <v>1268.68094731003</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036446</v>
@@ -4802,13 +4802,13 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4817,7 +4817,7 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
         <v>2544.691559791253</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018223</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>2366.086203674652</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X8" t="n">
-        <v>2366.086203674652</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y8" t="n">
-        <v>2366.086203674652</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="9">
@@ -4872,7 +4872,7 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4884,10 +4884,10 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M9" t="n">
         <v>1313.210296315296</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>398.3338608103785</v>
+        <v>546.4805193761948</v>
       </c>
       <c r="C10" t="n">
-        <v>229.3976778824716</v>
+        <v>377.5443364482879</v>
       </c>
       <c r="D10" t="n">
-        <v>200.8329293182748</v>
+        <v>227.4276970359522</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>79.51460345355909</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036446</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="V10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="W10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="X10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Y10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064346</v>
       </c>
     </row>
     <row r="11">
@@ -5030,13 +5030,13 @@
         <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805463</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
@@ -5118,22 +5118,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>973.0255547109412</v>
+        <v>713.5778697504956</v>
       </c>
       <c r="C13" t="n">
-        <v>804.0893717830343</v>
+        <v>544.6416868225887</v>
       </c>
       <c r="D13" t="n">
-        <v>653.9727323706985</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="E13" t="n">
-        <v>506.0596387883054</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F13" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5200,10 +5200,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
         <v>779.0639759471192</v>
@@ -5218,31 +5218,31 @@
         <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1373.696237997116</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1149.910822786622</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>1149.910822786622</v>
       </c>
       <c r="V13" t="n">
-        <v>1444.091189578141</v>
+        <v>895.2263345807353</v>
       </c>
       <c r="W13" t="n">
-        <v>1154.674019541181</v>
+        <v>895.2263345807353</v>
       </c>
       <c r="X13" t="n">
-        <v>1154.674019541181</v>
+        <v>895.2263345807353</v>
       </c>
       <c r="Y13" t="n">
-        <v>1154.674019541181</v>
+        <v>895.2263345807353</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5261,22 +5261,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514083</v>
@@ -5309,19 +5309,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>545.1765965867978</v>
+        <v>717.1440534185984</v>
       </c>
       <c r="C16" t="n">
-        <v>376.2404136588909</v>
+        <v>548.2078704906916</v>
       </c>
       <c r="D16" t="n">
-        <v>226.1237742465552</v>
+        <v>548.2078704906916</v>
       </c>
       <c r="E16" t="n">
-        <v>226.1237742465552</v>
+        <v>400.2947769082984</v>
       </c>
       <c r="F16" t="n">
-        <v>226.1237742465552</v>
+        <v>400.2947769082984</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="V16" t="n">
-        <v>1244.231782352015</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="W16" t="n">
-        <v>954.8146123150549</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="X16" t="n">
-        <v>726.8250614170375</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="Y16" t="n">
-        <v>726.8250614170375</v>
+        <v>898.7925182488382</v>
       </c>
     </row>
     <row r="17">
@@ -5504,19 +5504,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5592,22 +5592,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>233.7852434110089</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>644.6755122555215</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>579.3570368996732</v>
+        <v>358.8683222506741</v>
       </c>
       <c r="C19" t="n">
-        <v>410.4208539717663</v>
+        <v>358.8683222506741</v>
       </c>
       <c r="D19" t="n">
-        <v>410.4208539717663</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E19" t="n">
-        <v>262.5077603893733</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F19" t="n">
-        <v>262.5077603893733</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G19" t="n">
-        <v>262.5077603893733</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H19" t="n">
-        <v>112.0897519373166</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5698,25 +5698,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.78763177146</v>
+        <v>834.345389600091</v>
       </c>
       <c r="V19" t="n">
-        <v>1209.78763177146</v>
+        <v>579.6609013942042</v>
       </c>
       <c r="W19" t="n">
-        <v>1209.78763177146</v>
+        <v>579.6609013942042</v>
       </c>
       <c r="X19" t="n">
-        <v>981.798080873443</v>
+        <v>579.6609013942042</v>
       </c>
       <c r="Y19" t="n">
-        <v>761.0055017299129</v>
+        <v>358.8683222506741</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155909</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822464</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5765,37 +5765,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5817,34 +5817,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571612</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636255</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1514.038914395484</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1843.901542059517</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>266.1532743881928</v>
+        <v>471.5883316929522</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471197</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974668</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980065</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585748</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557904</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557904</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473456</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.210845262962</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>1038.244483529058</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V22" t="n">
-        <v>783.5599953231707</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="W22" t="n">
-        <v>494.14282528621</v>
+        <v>920.3704617344997</v>
       </c>
       <c r="X22" t="n">
-        <v>266.1532743881928</v>
+        <v>692.3809108364824</v>
       </c>
       <c r="Y22" t="n">
-        <v>266.1532743881928</v>
+        <v>471.5883316929522</v>
       </c>
     </row>
     <row r="23">
@@ -5987,10 +5987,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6023,13 +6023,13 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614725</v>
@@ -6069,19 +6069,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6121,13 +6121,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>414.0663679705859</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="C25" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="D25" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="E25" t="n">
         <v>97.21709146028586</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1468.202388137315</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1268.282378052867</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1044.496962842373</v>
+        <v>964.1357418247856</v>
       </c>
       <c r="U25" t="n">
-        <v>1044.496962842373</v>
+        <v>964.1357418247856</v>
       </c>
       <c r="V25" t="n">
-        <v>1044.496962842373</v>
+        <v>964.1357418247856</v>
       </c>
       <c r="W25" t="n">
-        <v>1044.496962842373</v>
+        <v>674.7185717878249</v>
       </c>
       <c r="X25" t="n">
-        <v>816.5074119443558</v>
+        <v>446.7290208898075</v>
       </c>
       <c r="Y25" t="n">
-        <v>595.7148328008257</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6209,49 +6209,49 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
@@ -6260,16 +6260,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6300,7 +6300,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
@@ -6309,22 +6309,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>1088.787142923176</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M27" t="n">
-        <v>1396.107276203138</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N27" t="n">
-        <v>1725.969903867171</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O27" t="n">
-        <v>2005.509969085868</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>573.246137400367</v>
+        <v>263.244929554844</v>
       </c>
       <c r="C28" t="n">
-        <v>404.3099544724602</v>
+        <v>263.244929554844</v>
       </c>
       <c r="D28" t="n">
-        <v>404.3099544724602</v>
+        <v>263.244929554844</v>
       </c>
       <c r="E28" t="n">
-        <v>359.1696912903952</v>
+        <v>263.244929554844</v>
       </c>
       <c r="F28" t="n">
-        <v>359.1696912903952</v>
+        <v>263.244929554844</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903952</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
         <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473454</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T28" t="n">
-        <v>1298.996260473454</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U28" t="n">
-        <v>1298.996260473454</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V28" t="n">
-        <v>1044.311772267567</v>
+        <v>955.1031435655743</v>
       </c>
       <c r="W28" t="n">
-        <v>754.8946022306068</v>
+        <v>665.6859735286139</v>
       </c>
       <c r="X28" t="n">
-        <v>754.8946022306068</v>
+        <v>665.6859735286139</v>
       </c>
       <c r="Y28" t="n">
-        <v>754.8946022306068</v>
+        <v>444.8933943850839</v>
       </c>
     </row>
     <row r="29">
@@ -6449,49 +6449,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6537,7 +6537,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6546,19 +6546,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1595.645765494011</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1925.508393158044</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2205.048458376741</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2410.070939158951</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>604.564143816378</v>
+        <v>750.874819421525</v>
       </c>
       <c r="C31" t="n">
-        <v>491.3888261698418</v>
+        <v>637.6995017749889</v>
       </c>
       <c r="D31" t="n">
-        <v>397.0330520388768</v>
+        <v>543.3437276440239</v>
       </c>
       <c r="E31" t="n">
-        <v>304.8808237378545</v>
+        <v>451.1914993430016</v>
       </c>
       <c r="F31" t="n">
-        <v>213.7517415213149</v>
+        <v>360.062417126462</v>
       </c>
       <c r="G31" t="n">
-        <v>101.3372851225057</v>
+        <v>247.6479607276534</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>152.9908175569676</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>164.2510079864672</v>
@@ -6640,31 +6640,31 @@
         <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899271</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096194</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.62813016707</v>
+        <v>1879.970519634377</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356662</v>
+        <v>1646.602746129306</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737483</v>
+        <v>1447.67912320479</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818936</v>
+        <v>1214.0228184492</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652469</v>
+        <v>1041.794132832553</v>
       </c>
       <c r="Y31" t="n">
-        <v>730.4517433652469</v>
+        <v>876.7624189703939</v>
       </c>
     </row>
     <row r="32">
@@ -6677,46 +6677,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G32" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6777,25 +6777,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1208.995055864553</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1538.857683528586</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2208.321444831246</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F34" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103127</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
@@ -6880,7 +6880,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
         <v>1865.165908942116</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045204</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6926,61 +6926,61 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7011,25 +7011,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K36" t="n">
-        <v>485.4047026089419</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>732.1698305154059</v>
+        <v>921.193690363625</v>
       </c>
       <c r="M36" t="n">
-        <v>1039.489963795367</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7072,34 +7072,34 @@
         <v>659.4602391108328</v>
       </c>
       <c r="C37" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506719</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083198</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504505</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103122</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J37" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7135,7 +7135,7 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y37" t="n">
         <v>772.2886129010315</v>
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7157,37 +7157,37 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515099</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.70982261913</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P38" t="n">
         <v>4454.632848899128</v>
@@ -7196,28 +7196,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D40" t="n">
         <v>478.0475988506724</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982974</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
         <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
         <v>1386.860941116388</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="41">
@@ -7397,49 +7397,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7485,31 +7485,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>841.863114014129</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1171.725741678162</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C43" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L43" t="n">
         <v>709.8489468649691</v>
@@ -7591,28 +7591,28 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T43" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="44">
@@ -7637,10 +7637,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028562</v>
@@ -7743,10 +7743,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,7 +7780,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108335</v>
+        <v>659.4602391108336</v>
       </c>
       <c r="C46" t="n">
         <v>559.3441472229678</v>
@@ -7792,10 +7792,10 @@
         <v>398.9545963083211</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504518</v>
+        <v>320.8847398504519</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7807,7 +7807,7 @@
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L46" t="n">
         <v>709.8489468649691</v>
@@ -7825,16 +7825,16 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986524</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T46" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U46" t="n">
         <v>1489.892037025263</v>
@@ -7843,13 +7843,13 @@
         <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045212</v>
+        <v>924.2611010045214</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010321</v>
+        <v>772.2886129010323</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142005</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8301,7 +8301,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8310,7 +8310,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415595</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>90.64146763747117</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,10 +8766,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8781,10 +8781,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>360.5026862907258</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9003,31 +9003,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>96.03744927814688</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9486,7 +9486,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>288.4091825776738</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445211</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9717,7 +9717,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9732,7 +9732,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9881,7 +9881,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9957,10 +9957,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>169.2863157167187</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>127.6461250100648</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10118,10 +10118,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119843</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
@@ -10194,7 +10194,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>127.6461250100647</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,13 +10425,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10440,16 +10440,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>124.3400780863232</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298383</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,7 +10665,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>73.53204524670085</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10674,19 +10674,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928342</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10902,7 +10902,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11063,10 +11063,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504502</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11136,10 +11136,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11151,16 +11151,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>349.7653003338568</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,19 +23464,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>73.95297774842493</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985788</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>197.8608131538647</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23656,19 +23656,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>38.87595250497093</v>
+        <v>15.36048823738125</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23698,25 +23698,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,16 +23887,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23905,10 +23905,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>95.69531159201155</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,22 +23938,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>47.7805512923369</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,13 +24127,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>53.47250137912891</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24145,7 +24145,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,19 +24172,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>249.6406542820125</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,13 +24364,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>79.55760880741148</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24424,13 +24424,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>52.39982339880564</v>
       </c>
     </row>
     <row r="26">
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>101.7451020963251</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>2.126008749764948</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.913828367536</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037929</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583893</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>89.63158001338141</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571493</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523573</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>110.7503164423512</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235377</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25126,7 +25126,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>6.536993168992922e-13</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -26320,40 +26320,40 @@
         <v>287364.6194524994</v>
       </c>
       <c r="E2" t="n">
-        <v>273720.3418163964</v>
+        <v>273720.3418163962</v>
       </c>
       <c r="F2" t="n">
         <v>273720.3418163963</v>
       </c>
       <c r="G2" t="n">
+        <v>273720.3418163964</v>
+      </c>
+      <c r="H2" t="n">
+        <v>273720.3418163964</v>
+      </c>
+      <c r="I2" t="n">
         <v>273720.3418163963</v>
       </c>
-      <c r="H2" t="n">
-        <v>273720.3418163963</v>
-      </c>
-      <c r="I2" t="n">
-        <v>273720.3418163964</v>
-      </c>
       <c r="J2" t="n">
-        <v>273720.341816396</v>
+        <v>273720.3418163962</v>
       </c>
       <c r="K2" t="n">
-        <v>284775.4961416892</v>
+        <v>284775.4961416891</v>
       </c>
       <c r="L2" t="n">
-        <v>287364.6194524993</v>
+        <v>287364.6194524989</v>
       </c>
       <c r="M2" t="n">
-        <v>287364.6194524989</v>
+        <v>287364.6194524992</v>
       </c>
       <c r="N2" t="n">
-        <v>287364.619452499</v>
+        <v>287364.6194524991</v>
       </c>
       <c r="O2" t="n">
+        <v>287364.6194524992</v>
+      </c>
+      <c r="P2" t="n">
         <v>287364.6194524991</v>
-      </c>
-      <c r="P2" t="n">
-        <v>287364.6194524993</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>3.482032298052218e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26390,7 +26390,7 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284569</v>
+        <v>44162.60530284558</v>
       </c>
       <c r="L3" t="n">
         <v>10342.90680086687</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284572</v>
+        <v>44162.60530284562</v>
       </c>
     </row>
     <row r="4">
@@ -26424,40 +26424,40 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687069</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687077</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687073</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687073</v>
       </c>
       <c r="K4" t="n">
-        <v>40339.23010106725</v>
+        <v>40339.23010106724</v>
       </c>
       <c r="L4" t="n">
+        <v>44593.39482819118</v>
+      </c>
+      <c r="M4" t="n">
+        <v>44593.39482819111</v>
+      </c>
+      <c r="N4" t="n">
+        <v>44593.39482819114</v>
+      </c>
+      <c r="O4" t="n">
+        <v>44593.39482819117</v>
+      </c>
+      <c r="P4" t="n">
         <v>44593.39482819119</v>
-      </c>
-      <c r="M4" t="n">
-        <v>44593.3948281912</v>
-      </c>
-      <c r="N4" t="n">
-        <v>44593.39482819118</v>
-      </c>
-      <c r="O4" t="n">
-        <v>44593.39482819119</v>
-      </c>
-      <c r="P4" t="n">
-        <v>44593.3948281912</v>
       </c>
     </row>
     <row r="5">
@@ -26470,22 +26470,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871662</v>
@@ -26494,19 +26494,19 @@
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022281</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002542</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002542</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26522,46 +26522,46 @@
         <v>-551095.2056119789</v>
       </c>
       <c r="C6" t="n">
-        <v>38872.67360256553</v>
+        <v>38872.6736025656</v>
       </c>
       <c r="D6" t="n">
-        <v>38872.67360256561</v>
+        <v>38872.67360256557</v>
       </c>
       <c r="E6" t="n">
-        <v>-365601.6281960869</v>
+        <v>-365699.0873220592</v>
       </c>
       <c r="F6" t="n">
-        <v>159558.4082808089</v>
+        <v>159460.9491548368</v>
       </c>
       <c r="G6" t="n">
-        <v>159558.408280809</v>
+        <v>159460.9491548369</v>
       </c>
       <c r="H6" t="n">
-        <v>159558.4082808086</v>
+        <v>159460.9491548369</v>
       </c>
       <c r="I6" t="n">
-        <v>159558.4082808095</v>
+        <v>159460.9491548368</v>
       </c>
       <c r="J6" t="n">
-        <v>-16864.81091178433</v>
+        <v>-16962.27003775629</v>
       </c>
       <c r="K6" t="n">
-        <v>103645.4522075534</v>
+        <v>103626.9584696192</v>
       </c>
       <c r="L6" t="n">
-        <v>134713.2120034159</v>
+        <v>134713.2120034154</v>
       </c>
       <c r="M6" t="n">
-        <v>10255.10357044506</v>
+        <v>10255.10357044543</v>
       </c>
       <c r="N6" t="n">
-        <v>145056.1188042824</v>
+        <v>145056.1188042826</v>
       </c>
       <c r="O6" t="n">
-        <v>145056.1188042825</v>
+        <v>145056.1188042826</v>
       </c>
       <c r="P6" t="n">
-        <v>100893.513501437</v>
+        <v>100893.5135014369</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="K2" t="n">
         <v>55.20325662855706</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N2" t="n">
+        <v>68.13189012964068</v>
+      </c>
+      <c r="O2" t="n">
         <v>68.13189012964061</v>
       </c>
-      <c r="O2" t="n">
-        <v>68.13189012964065</v>
-      </c>
       <c r="P2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26738,22 +26738,22 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541008</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
@@ -26762,19 +26762,19 @@
         <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545557</v>
@@ -26820,10 +26820,10 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="N4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="O4" t="n">
         <v>1215.213643253573</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108359</v>
+        <v>12.92863350108358</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855703</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855697</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,22 +27376,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>34.84801575041723</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27433,19 +27433,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>256.0518124789459</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>86.35958614910668</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27588,22 +27588,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>29.47236358608572</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>66.53729878111113</v>
+        <v>366.7855376854472</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,22 +27661,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27777,10 +27777,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,22 +27816,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>56.01837628787155</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>244.9927819586531</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16.25857125419475</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>299.3310639841186</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,16 +27898,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28014,13 +28014,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>120.3363719396576</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>120.1051426060686</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.406874616804998e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -29092,7 +29092,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29104,7 +29104,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="24">
@@ -29323,7 +29323,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31282,43 +31282,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P5" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,25 +31458,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31519,43 +31519,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,25 +31695,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443619</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444947</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041491</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304443</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565522</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927189</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540889</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104654</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354104</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386727</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127068</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215735</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622984</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724849</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813465</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855529</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710958</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677467</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361494</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
-        <v>105.8669502822384</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196126</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171321</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337674</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892249</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0816769579135182</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34778,7 +34778,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047517</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P5" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35106,10 +35106,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
@@ -35501,10 +35501,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>642.8663885318339</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>137.9476282330536</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
@@ -35969,16 +35969,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303333</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109075</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.329650222112</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081122</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349822</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.040675600518</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560246</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>598.8335596281404</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980132</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411085</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315249</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.5077701655656</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187483</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36437,7 +36437,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>384.9870895382561</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
@@ -36452,7 +36452,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36601,7 +36601,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36677,10 +36677,10 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>418.5440206727429</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>438.070502060531</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980128</v>
@@ -36689,13 +36689,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
         <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556547</v>
+        <v>12.5077701655656</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N28" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187483</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,16 +36832,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
         <v>713.1546070951472</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,22 +36914,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>215.6591577951388</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412257</v>
+        <v>67.71102679412259</v>
       </c>
       <c r="K31" t="n">
         <v>206.9056851584676</v>
@@ -37002,13 +37002,13 @@
         <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491599</v>
+        <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
         <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.4289566004318</v>
+        <v>94.42895660043182</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>331.4334930178478</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37236,7 +37236,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502435</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,22 +37385,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>224.1074838346401</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37473,7 +37473,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502435</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221134</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37622,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>384.9870895382558</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,25 +37698,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520613</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L40" t="n">
-        <v>318.3460770095691</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M40" t="n">
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414413</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>632.1290025749649</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -38111,13 +38111,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38190,7 +38190,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
